--- a/AMDOCS_SPLK_LAB_ACCESS.xlsx
+++ b/AMDOCS_SPLK_LAB_ACCESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vivek\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B5A1904-2A96-42F6-93E3-6BA4C1FFCEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF2022E-B5F5-4C01-9E93-99D0A03795F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0225589B-A936-48E8-AC78-C6C2DAFE10EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
   <si>
     <t>User Name</t>
   </si>
@@ -147,12 +147,6 @@
     <t>brijeshs@amdocs.com</t>
   </si>
   <si>
-    <t>Suryanarayana Reddy Ambavarapu</t>
-  </si>
-  <si>
-    <t>suryanaa@amdocs.com</t>
-  </si>
-  <si>
     <t>Shaveta Batra</t>
   </si>
   <si>
@@ -319,6 +313,99 @@
   </si>
   <si>
     <t>Lab Credentials</t>
+  </si>
+  <si>
+    <t>Amit Kate</t>
+  </si>
+  <si>
+    <t>URL2</t>
+  </si>
+  <si>
+    <t>18.212.190.238</t>
+  </si>
+  <si>
+    <t>35.171.20.135</t>
+  </si>
+  <si>
+    <t>18.212.17.94</t>
+  </si>
+  <si>
+    <t>54.211.5.15</t>
+  </si>
+  <si>
+    <t>54.161.252.90</t>
+  </si>
+  <si>
+    <t>54.163.73.37</t>
+  </si>
+  <si>
+    <t>44.203.153.103</t>
+  </si>
+  <si>
+    <t>54.156.152.158</t>
+  </si>
+  <si>
+    <t>184.72.204.200</t>
+  </si>
+  <si>
+    <t>3.83.218.73</t>
+  </si>
+  <si>
+    <t>54.89.101.85</t>
+  </si>
+  <si>
+    <t>44.201.141.168</t>
+  </si>
+  <si>
+    <t>3.95.160.245</t>
+  </si>
+  <si>
+    <t>18.206.145.179</t>
+  </si>
+  <si>
+    <t>34.201.51.103</t>
+  </si>
+  <si>
+    <t>52.5.104.48</t>
+  </si>
+  <si>
+    <t>107.23.250.125</t>
+  </si>
+  <si>
+    <t>34.238.157.33</t>
+  </si>
+  <si>
+    <t>54.205.83.35</t>
+  </si>
+  <si>
+    <t>54.165.168.72</t>
+  </si>
+  <si>
+    <t>54.162.9.200</t>
+  </si>
+  <si>
+    <t>54.161.157.242</t>
+  </si>
+  <si>
+    <t>174.129.164.6</t>
+  </si>
+  <si>
+    <t>52.91.196.199</t>
+  </si>
+  <si>
+    <t>44.202.23.212</t>
+  </si>
+  <si>
+    <t>18.206.161.40</t>
+  </si>
+  <si>
+    <t>52.70.195.53</t>
+  </si>
+  <si>
+    <t>34.201.117.186</t>
+  </si>
+  <si>
+    <t>18.206.64.160</t>
   </si>
 </sst>
 </file>
@@ -382,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -410,61 +497,8 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -472,36 +506,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -817,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1234271A-1294-476D-832B-3DB4C01D30BC}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -830,29 +851,32 @@
     <col min="4" max="4" width="46.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -860,17 +884,20 @@
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -880,17 +907,20 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -900,17 +930,20 @@
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -920,17 +953,20 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -940,17 +976,20 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -960,17 +999,20 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -980,17 +1022,20 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1000,17 +1045,20 @@
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1020,17 +1068,20 @@
       <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1040,17 +1091,20 @@
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1060,17 +1114,20 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1080,17 +1137,20 @@
       <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="D14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1100,17 +1160,20 @@
       <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1120,17 +1183,20 @@
       <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1140,17 +1206,20 @@
       <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1160,17 +1229,20 @@
       <c r="C18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1180,17 +1252,20 @@
       <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1200,17 +1275,20 @@
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1220,17 +1298,20 @@
       <c r="C21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1240,227 +1321,259 @@
       <c r="C22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A1:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1483,36 +1596,35 @@
     <hyperlink ref="C20" r:id="rId17" display="mailto:Shantanu.Gautam@amdocs.com" xr:uid="{F7CFAE58-E847-4BC1-BD1B-030B2E488F9A}"/>
     <hyperlink ref="C21" r:id="rId18" display="mailto:Mridu.Jain@amdocs.com" xr:uid="{45C57CC1-7D91-4C60-B023-25AC1A9125FA}"/>
     <hyperlink ref="C22" r:id="rId19" display="mailto:brijeshs@amdocs.com" xr:uid="{FD1A523D-87FC-4501-A1AA-08E23594CF25}"/>
-    <hyperlink ref="C23" r:id="rId20" display="mailto:suryanaa@amdocs.com" xr:uid="{B8283677-2A96-4EB3-BEB9-C81DC723A132}"/>
-    <hyperlink ref="C24" r:id="rId21" display="mailto:Shaveta.Batra@amdocs.com" xr:uid="{FB2431C1-29B2-4E3C-98C8-244F16446D78}"/>
-    <hyperlink ref="C25" r:id="rId22" display="mailto:Simran.Maheshwari@amdocs.com" xr:uid="{F619D66E-C154-4A48-BC53-F31FC6D71AA4}"/>
-    <hyperlink ref="C26" r:id="rId23" display="mailto:Bharti.Gupta3@amdocs.com" xr:uid="{F0A4AE3F-2E25-4E89-A4F8-86564373373A}"/>
-    <hyperlink ref="C27" r:id="rId24" display="mailto:Vijay.Tiwari@amdocs.com" xr:uid="{A2DA2365-90C9-4BCE-86AD-F99427F31CB3}"/>
-    <hyperlink ref="C28" r:id="rId25" display="mailto:Geeta.Naikwadi@amdocs.com" xr:uid="{C5EB7D4E-DCF9-4C66-A97E-22C62211EB79}"/>
-    <hyperlink ref="C29" r:id="rId26" display="mailto:Hemant.Kumar3@amdocs.com" xr:uid="{0C00E96C-FAFA-433E-9A6B-2726E0C08D71}"/>
-    <hyperlink ref="C30" r:id="rId27" display="mailto:rathods@amdocs.com" xr:uid="{A4432840-4AFB-4FEB-A6B9-D244B5B3BFD6}"/>
-    <hyperlink ref="C31" r:id="rId28" display="mailto:Pallavi.Inde@amdocs.com" xr:uid="{5A1FBBE6-3A80-4B7D-A552-E12C4D2850D8}"/>
-    <hyperlink ref="C32" r:id="rId29" display="mailto:Poonam.Sen@amdocs.com" xr:uid="{5852FFF6-5610-4816-BA98-4299A1ABD635}"/>
-    <hyperlink ref="F5" r:id="rId30" xr:uid="{B6443B4F-A60A-4015-9420-30054FFC78EC}"/>
-    <hyperlink ref="F6" r:id="rId31" xr:uid="{37DD67A5-D079-4111-8C77-D066C49CEAE2}"/>
-    <hyperlink ref="F8" r:id="rId32" xr:uid="{02FCE2A8-DB02-495A-9701-1A560436ADCA}"/>
-    <hyperlink ref="F11" r:id="rId33" xr:uid="{50B8FADF-B5E2-4BD0-AFED-79489E1F73C5}"/>
-    <hyperlink ref="F9" r:id="rId34" xr:uid="{8ADC3F9A-8BD6-467E-85CF-CAA58A89724C}"/>
-    <hyperlink ref="F12" r:id="rId35" xr:uid="{25C91CD1-149B-487C-8EE9-2DBA85F590BB}"/>
-    <hyperlink ref="F14" r:id="rId36" xr:uid="{5BBA0F92-5218-4143-AC3B-1C8E19F54F3B}"/>
-    <hyperlink ref="F20" r:id="rId37" xr:uid="{5DCD3F83-3A2F-463E-BDC9-5C887C11A0FF}"/>
-    <hyperlink ref="F26" r:id="rId38" xr:uid="{B743E16A-38CE-4B82-A026-A3339BEA0BDF}"/>
-    <hyperlink ref="F32" r:id="rId39" xr:uid="{8D02C970-90B9-4CC2-8645-638CE3F6E296}"/>
-    <hyperlink ref="F17" r:id="rId40" xr:uid="{C489B34B-AC04-496A-BA74-2E666B04592D}"/>
-    <hyperlink ref="F23" r:id="rId41" xr:uid="{64724F61-3B58-40E4-AC9D-8803CBA67ACE}"/>
-    <hyperlink ref="F29" r:id="rId42" xr:uid="{674ED52E-117A-4139-B0E0-CBD56A6CF0F1}"/>
-    <hyperlink ref="F15" r:id="rId43" xr:uid="{6DE25309-7BBF-4D24-85A4-BA5E1B183EE3}"/>
-    <hyperlink ref="F21" r:id="rId44" xr:uid="{619F3755-9ACB-4F26-A08A-DB926734ECC1}"/>
-    <hyperlink ref="F27" r:id="rId45" xr:uid="{9FEB73BB-CC91-4E1D-BD92-0A18BFD8652D}"/>
-    <hyperlink ref="F18" r:id="rId46" xr:uid="{0F684ACF-401F-4E93-A1A6-62AE609E4DA3}"/>
-    <hyperlink ref="F24" r:id="rId47" xr:uid="{F980600C-C6A8-49FB-AEED-EBF5B1887D28}"/>
-    <hyperlink ref="F30" r:id="rId48" xr:uid="{A0050A0D-1D54-4B12-9B7F-1BDFC1868779}"/>
-    <hyperlink ref="D24" r:id="rId49" xr:uid="{9B3AF4E3-6B3F-413E-826C-C6521982282E}"/>
+    <hyperlink ref="C24" r:id="rId20" display="mailto:Shaveta.Batra@amdocs.com" xr:uid="{FB2431C1-29B2-4E3C-98C8-244F16446D78}"/>
+    <hyperlink ref="C25" r:id="rId21" display="mailto:Simran.Maheshwari@amdocs.com" xr:uid="{F619D66E-C154-4A48-BC53-F31FC6D71AA4}"/>
+    <hyperlink ref="C26" r:id="rId22" display="mailto:Bharti.Gupta3@amdocs.com" xr:uid="{F0A4AE3F-2E25-4E89-A4F8-86564373373A}"/>
+    <hyperlink ref="C27" r:id="rId23" display="mailto:Vijay.Tiwari@amdocs.com" xr:uid="{A2DA2365-90C9-4BCE-86AD-F99427F31CB3}"/>
+    <hyperlink ref="C28" r:id="rId24" display="mailto:Geeta.Naikwadi@amdocs.com" xr:uid="{C5EB7D4E-DCF9-4C66-A97E-22C62211EB79}"/>
+    <hyperlink ref="C29" r:id="rId25" display="mailto:Hemant.Kumar3@amdocs.com" xr:uid="{0C00E96C-FAFA-433E-9A6B-2726E0C08D71}"/>
+    <hyperlink ref="C30" r:id="rId26" display="mailto:rathods@amdocs.com" xr:uid="{A4432840-4AFB-4FEB-A6B9-D244B5B3BFD6}"/>
+    <hyperlink ref="C31" r:id="rId27" display="mailto:Pallavi.Inde@amdocs.com" xr:uid="{5A1FBBE6-3A80-4B7D-A552-E12C4D2850D8}"/>
+    <hyperlink ref="C32" r:id="rId28" display="mailto:Poonam.Sen@amdocs.com" xr:uid="{5852FFF6-5610-4816-BA98-4299A1ABD635}"/>
+    <hyperlink ref="F5" r:id="rId29" xr:uid="{B6443B4F-A60A-4015-9420-30054FFC78EC}"/>
+    <hyperlink ref="F6" r:id="rId30" xr:uid="{37DD67A5-D079-4111-8C77-D066C49CEAE2}"/>
+    <hyperlink ref="F8" r:id="rId31" xr:uid="{02FCE2A8-DB02-495A-9701-1A560436ADCA}"/>
+    <hyperlink ref="F11" r:id="rId32" xr:uid="{50B8FADF-B5E2-4BD0-AFED-79489E1F73C5}"/>
+    <hyperlink ref="F9" r:id="rId33" xr:uid="{8ADC3F9A-8BD6-467E-85CF-CAA58A89724C}"/>
+    <hyperlink ref="F12" r:id="rId34" xr:uid="{25C91CD1-149B-487C-8EE9-2DBA85F590BB}"/>
+    <hyperlink ref="F14" r:id="rId35" xr:uid="{5BBA0F92-5218-4143-AC3B-1C8E19F54F3B}"/>
+    <hyperlink ref="F20" r:id="rId36" xr:uid="{5DCD3F83-3A2F-463E-BDC9-5C887C11A0FF}"/>
+    <hyperlink ref="F26" r:id="rId37" xr:uid="{B743E16A-38CE-4B82-A026-A3339BEA0BDF}"/>
+    <hyperlink ref="F32" r:id="rId38" xr:uid="{8D02C970-90B9-4CC2-8645-638CE3F6E296}"/>
+    <hyperlink ref="F17" r:id="rId39" xr:uid="{C489B34B-AC04-496A-BA74-2E666B04592D}"/>
+    <hyperlink ref="F23" r:id="rId40" xr:uid="{64724F61-3B58-40E4-AC9D-8803CBA67ACE}"/>
+    <hyperlink ref="F29" r:id="rId41" xr:uid="{674ED52E-117A-4139-B0E0-CBD56A6CF0F1}"/>
+    <hyperlink ref="F15" r:id="rId42" xr:uid="{6DE25309-7BBF-4D24-85A4-BA5E1B183EE3}"/>
+    <hyperlink ref="F21" r:id="rId43" xr:uid="{619F3755-9ACB-4F26-A08A-DB926734ECC1}"/>
+    <hyperlink ref="F27" r:id="rId44" xr:uid="{9FEB73BB-CC91-4E1D-BD92-0A18BFD8652D}"/>
+    <hyperlink ref="F18" r:id="rId45" xr:uid="{0F684ACF-401F-4E93-A1A6-62AE609E4DA3}"/>
+    <hyperlink ref="F24" r:id="rId46" xr:uid="{F980600C-C6A8-49FB-AEED-EBF5B1887D28}"/>
+    <hyperlink ref="F30" r:id="rId47" xr:uid="{A0050A0D-1D54-4B12-9B7F-1BDFC1868779}"/>
+    <hyperlink ref="D24" r:id="rId48" xr:uid="{9B3AF4E3-6B3F-413E-826C-C6521982282E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AMDOCS_SPLK_LAB_ACCESS.xlsx
+++ b/AMDOCS_SPLK_LAB_ACCESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vivek\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF2022E-B5F5-4C01-9E93-99D0A03795F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B183AE-5C6B-4C77-A9D5-C0FCA12AF670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0225589B-A936-48E8-AC78-C6C2DAFE10EA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0225589B-A936-48E8-AC78-C6C2DAFE10EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="157">
   <si>
     <t>User Name</t>
   </si>
@@ -406,6 +406,96 @@
   </si>
   <si>
     <t>18.206.64.160</t>
+  </si>
+  <si>
+    <t>URL3</t>
+  </si>
+  <si>
+    <t>3.138.37.128</t>
+  </si>
+  <si>
+    <t>3.137.223.24</t>
+  </si>
+  <si>
+    <t>3.148.102.130</t>
+  </si>
+  <si>
+    <t>18.191.205.79</t>
+  </si>
+  <si>
+    <t>18.191.225.245</t>
+  </si>
+  <si>
+    <t>3.137.170.129</t>
+  </si>
+  <si>
+    <t>3.144.88.103</t>
+  </si>
+  <si>
+    <t>18.191.132.85</t>
+  </si>
+  <si>
+    <t>3.17.74.113</t>
+  </si>
+  <si>
+    <t>18.222.117.226</t>
+  </si>
+  <si>
+    <t>3.144.10.230</t>
+  </si>
+  <si>
+    <t>18.188.226.13</t>
+  </si>
+  <si>
+    <t>18.118.253.155</t>
+  </si>
+  <si>
+    <t>3.147.13.246</t>
+  </si>
+  <si>
+    <t>13.58.253.8</t>
+  </si>
+  <si>
+    <t>3.136.236.7</t>
+  </si>
+  <si>
+    <t>13.58.217.113</t>
+  </si>
+  <si>
+    <t>18.189.193.246</t>
+  </si>
+  <si>
+    <t>13.59.83.248</t>
+  </si>
+  <si>
+    <t>3.144.29.62</t>
+  </si>
+  <si>
+    <t>3.147.59.156</t>
+  </si>
+  <si>
+    <t>3.144.15.9</t>
+  </si>
+  <si>
+    <t>13.58.156.169</t>
+  </si>
+  <si>
+    <t>52.15.123.191</t>
+  </si>
+  <si>
+    <t>3.141.25.90</t>
+  </si>
+  <si>
+    <t>3.145.84.253</t>
+  </si>
+  <si>
+    <t>18.224.62.172</t>
+  </si>
+  <si>
+    <t>18.119.116.28</t>
+  </si>
+  <si>
+    <t>3.145.17.34</t>
   </si>
 </sst>
 </file>
@@ -469,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -496,8 +586,36 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -506,7 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -516,13 +634,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -838,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1234271A-1294-476D-832B-3DB4C01D30BC}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -851,30 +975,32 @@
     <col min="4" max="4" width="46.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -893,11 +1019,14 @@
       <c r="F3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -919,8 +1048,11 @@
       <c r="G4" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -942,31 +1074,37 @@
       <c r="G5" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="H5" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -988,8 +1126,11 @@
       <c r="G7" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1011,8 +1152,11 @@
       <c r="G8" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1034,8 +1178,11 @@
       <c r="G9" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1057,8 +1204,11 @@
       <c r="G10" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1080,8 +1230,11 @@
       <c r="G11" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1103,8 +1256,11 @@
       <c r="G12" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1126,8 +1282,11 @@
       <c r="G13" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1149,8 +1308,11 @@
       <c r="G14" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1172,8 +1334,11 @@
       <c r="G15" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1195,8 +1360,11 @@
       <c r="G16" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1218,8 +1386,11 @@
       <c r="G17" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1241,8 +1412,11 @@
       <c r="G18" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1264,8 +1438,11 @@
       <c r="G19" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1287,8 +1464,11 @@
       <c r="G20" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1310,8 +1490,11 @@
       <c r="G21" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1333,8 +1516,11 @@
       <c r="G22" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1354,8 +1540,11 @@
       <c r="G23" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1377,8 +1566,11 @@
       <c r="G24" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1400,8 +1592,11 @@
       <c r="G25" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1423,8 +1618,11 @@
       <c r="G26" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1446,8 +1644,11 @@
       <c r="G27" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1469,8 +1670,11 @@
       <c r="G28" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1492,8 +1696,11 @@
       <c r="G29" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1515,8 +1722,11 @@
       <c r="G30" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H30" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1538,8 +1748,11 @@
       <c r="G31" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1558,11 +1771,14 @@
       <c r="F32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1570,10 +1786,11 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
+      <c r="H33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A1:H2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/AMDOCS_SPLK_LAB_ACCESS.xlsx
+++ b/AMDOCS_SPLK_LAB_ACCESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vivek\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B183AE-5C6B-4C77-A9D5-C0FCA12AF670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BC062E-DEB0-4529-977E-3A4DD19139B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0225589B-A936-48E8-AC78-C6C2DAFE10EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="245">
   <si>
     <t>User Name</t>
   </si>
@@ -496,13 +496,277 @@
   </si>
   <si>
     <t>3.145.17.34</t>
+  </si>
+  <si>
+    <t>URL4</t>
+  </si>
+  <si>
+    <t>URL5</t>
+  </si>
+  <si>
+    <t>URL6</t>
+  </si>
+  <si>
+    <t>34.226.217.222</t>
+  </si>
+  <si>
+    <t>3.95.1.160</t>
+  </si>
+  <si>
+    <t>18.232.80.129</t>
+  </si>
+  <si>
+    <t>18.232.78.39</t>
+  </si>
+  <si>
+    <t>52.90.26.138</t>
+  </si>
+  <si>
+    <t>54.172.55.217</t>
+  </si>
+  <si>
+    <t>3.84.147.4</t>
+  </si>
+  <si>
+    <t>3.84.231.102</t>
+  </si>
+  <si>
+    <t>52.90.122.51</t>
+  </si>
+  <si>
+    <t>54.152.247.98</t>
+  </si>
+  <si>
+    <t>107.22.19.4</t>
+  </si>
+  <si>
+    <t>3.81.157.229</t>
+  </si>
+  <si>
+    <t>3.87.117.217</t>
+  </si>
+  <si>
+    <t>54.157.27.55</t>
+  </si>
+  <si>
+    <t>3.84.217.251</t>
+  </si>
+  <si>
+    <t>18.232.76.183</t>
+  </si>
+  <si>
+    <t>100.24.1.22</t>
+  </si>
+  <si>
+    <t>107.22.82.180</t>
+  </si>
+  <si>
+    <t>3.85.207.182</t>
+  </si>
+  <si>
+    <t>35.171.166.93</t>
+  </si>
+  <si>
+    <t>23.23.61.20</t>
+  </si>
+  <si>
+    <t>35.153.105.208</t>
+  </si>
+  <si>
+    <t>52.91.237.66</t>
+  </si>
+  <si>
+    <t>34.203.209.247</t>
+  </si>
+  <si>
+    <t>34.235.148.226</t>
+  </si>
+  <si>
+    <t>54.166.194.206</t>
+  </si>
+  <si>
+    <t>54.161.109.159</t>
+  </si>
+  <si>
+    <t>54.90.164.160</t>
+  </si>
+  <si>
+    <t>54.158.21.105</t>
+  </si>
+  <si>
+    <t>3.89.72.126</t>
+  </si>
+  <si>
+    <t>54.147.105.230</t>
+  </si>
+  <si>
+    <t>18.207.232.138</t>
+  </si>
+  <si>
+    <t>18.207.175.230</t>
+  </si>
+  <si>
+    <t>54.198.58.152</t>
+  </si>
+  <si>
+    <t>3.81.105.197</t>
+  </si>
+  <si>
+    <t>54.196.38.22</t>
+  </si>
+  <si>
+    <t>54.224.233.220</t>
+  </si>
+  <si>
+    <t>54.172.216.68</t>
+  </si>
+  <si>
+    <t>52.91.108.222</t>
+  </si>
+  <si>
+    <t>54.209.248.22</t>
+  </si>
+  <si>
+    <t>35.171.86.20</t>
+  </si>
+  <si>
+    <t>52.202.222.224</t>
+  </si>
+  <si>
+    <t>35.175.209.142</t>
+  </si>
+  <si>
+    <t>100.24.62.44</t>
+  </si>
+  <si>
+    <t>34.235.147.90</t>
+  </si>
+  <si>
+    <t>18.212.119.109</t>
+  </si>
+  <si>
+    <t>54.162.187.122</t>
+  </si>
+  <si>
+    <t>18.206.216.35</t>
+  </si>
+  <si>
+    <t>3.82.66.25</t>
+  </si>
+  <si>
+    <t>107.21.71.44</t>
+  </si>
+  <si>
+    <t>34.239.141.89</t>
+  </si>
+  <si>
+    <t>54.91.152.127</t>
+  </si>
+  <si>
+    <t>50.16.86.165</t>
+  </si>
+  <si>
+    <t>3.90.34.117</t>
+  </si>
+  <si>
+    <t>34.235.161.120</t>
+  </si>
+  <si>
+    <t>54.167.249.42</t>
+  </si>
+  <si>
+    <t>18.215.249.132</t>
+  </si>
+  <si>
+    <t>3.91.43.111</t>
+  </si>
+  <si>
+    <t>3.90.137.123</t>
+  </si>
+  <si>
+    <t>34.235.118.205</t>
+  </si>
+  <si>
+    <t>54.88.165.24</t>
+  </si>
+  <si>
+    <t>52.55.194.140</t>
+  </si>
+  <si>
+    <t>18.209.107.115</t>
+  </si>
+  <si>
+    <t>100.24.65.202</t>
+  </si>
+  <si>
+    <t>3.89.147.193</t>
+  </si>
+  <si>
+    <t>52.55.246.98</t>
+  </si>
+  <si>
+    <t>54.145.82.243</t>
+  </si>
+  <si>
+    <t>18.206.188.118</t>
+  </si>
+  <si>
+    <t>54.234.208.83</t>
+  </si>
+  <si>
+    <t>54.173.206.220</t>
+  </si>
+  <si>
+    <t>23.20.57.236</t>
+  </si>
+  <si>
+    <t>3.87.132.43</t>
+  </si>
+  <si>
+    <t>34.228.239.236</t>
+  </si>
+  <si>
+    <t>18.212.146.203</t>
+  </si>
+  <si>
+    <t>35.173.253.216</t>
+  </si>
+  <si>
+    <t>54.242.199.84</t>
+  </si>
+  <si>
+    <t>23.20.145.1</t>
+  </si>
+  <si>
+    <t>52.206.139.139</t>
+  </si>
+  <si>
+    <t>54.167.251.14</t>
+  </si>
+  <si>
+    <t>3.85.74.75</t>
+  </si>
+  <si>
+    <t>34.228.245.136</t>
+  </si>
+  <si>
+    <t>54.205.20.65</t>
+  </si>
+  <si>
+    <t>54.85.172.128</t>
+  </si>
+  <si>
+    <t>3.89.6.57</t>
+  </si>
+  <si>
+    <t>34.207.230.85</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,8 +802,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +825,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,17 +866,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -619,12 +884,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,19 +908,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -962,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1234271A-1294-476D-832B-3DB4C01D30BC}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -976,31 +1254,38 @@
     <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13.54296875" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -1022,11 +1307,20 @@
       <c r="G3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1048,11 +1342,20 @@
       <c r="G4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1074,37 +1377,55 @@
       <c r="G5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+      <c r="I5" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1126,11 +1447,20 @@
       <c r="G7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1152,11 +1482,20 @@
       <c r="G8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1178,11 +1517,20 @@
       <c r="G9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1204,11 +1552,20 @@
       <c r="G10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1230,11 +1587,20 @@
       <c r="G11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1256,11 +1622,20 @@
       <c r="G12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1282,11 +1657,20 @@
       <c r="G13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1308,11 +1692,20 @@
       <c r="G14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1334,11 +1727,20 @@
       <c r="G15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1360,11 +1762,20 @@
       <c r="G16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1386,11 +1797,20 @@
       <c r="G17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1412,11 +1832,20 @@
       <c r="G18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1438,11 +1867,20 @@
       <c r="G19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1464,11 +1902,20 @@
       <c r="G20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1490,11 +1937,20 @@
       <c r="G21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1516,11 +1972,20 @@
       <c r="G22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1540,11 +2005,20 @@
       <c r="G23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1566,11 +2040,20 @@
       <c r="G24" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1592,11 +2075,20 @@
       <c r="G25" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1618,11 +2110,20 @@
       <c r="G26" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1644,11 +2145,20 @@
       <c r="G27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1670,11 +2180,20 @@
       <c r="G28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I28" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1696,11 +2215,20 @@
       <c r="G29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1722,11 +2250,20 @@
       <c r="G30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I30" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1748,11 +2285,20 @@
       <c r="G31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I31" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1771,14 +2317,23 @@
       <c r="F32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I32" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1786,11 +2341,14 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A1:K2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/AMDOCS_SPLK_LAB_ACCESS.xlsx
+++ b/AMDOCS_SPLK_LAB_ACCESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vivek\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BC062E-DEB0-4529-977E-3A4DD19139B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0517CEA-7EA7-4700-8261-3FD7F0FA96FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0225589B-A936-48E8-AC78-C6C2DAFE10EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="275">
   <si>
     <t>User Name</t>
   </si>
@@ -760,13 +760,103 @@
   </si>
   <si>
     <t>34.207.230.85</t>
+  </si>
+  <si>
+    <t>URL 7</t>
+  </si>
+  <si>
+    <t>54.90.207.224</t>
+  </si>
+  <si>
+    <t>52.201.238.77</t>
+  </si>
+  <si>
+    <t>54.82.243.151</t>
+  </si>
+  <si>
+    <t>54.167.49.121</t>
+  </si>
+  <si>
+    <t>54.89.156.24</t>
+  </si>
+  <si>
+    <t>54.82.216.229</t>
+  </si>
+  <si>
+    <t>54.198.118.187</t>
+  </si>
+  <si>
+    <t>54.144.106.101</t>
+  </si>
+  <si>
+    <t>54.198.98.99</t>
+  </si>
+  <si>
+    <t>34.229.178.37</t>
+  </si>
+  <si>
+    <t>3.85.208.108</t>
+  </si>
+  <si>
+    <t>54.82.65.173</t>
+  </si>
+  <si>
+    <t>3.93.189.154</t>
+  </si>
+  <si>
+    <t>54.196.196.146</t>
+  </si>
+  <si>
+    <t>3.85.120.182</t>
+  </si>
+  <si>
+    <t>54.160.226.65</t>
+  </si>
+  <si>
+    <t>54.90.253.49</t>
+  </si>
+  <si>
+    <t>3.93.173.148</t>
+  </si>
+  <si>
+    <t>35.175.194.15</t>
+  </si>
+  <si>
+    <t>52.91.54.222</t>
+  </si>
+  <si>
+    <t>54.82.69.224</t>
+  </si>
+  <si>
+    <t>54.82.50.70</t>
+  </si>
+  <si>
+    <t>107.21.188.217</t>
+  </si>
+  <si>
+    <t>54.82.30.189</t>
+  </si>
+  <si>
+    <t>54.82.237.1</t>
+  </si>
+  <si>
+    <t>52.207.228.78</t>
+  </si>
+  <si>
+    <t>54.196.138.248</t>
+  </si>
+  <si>
+    <t>18.205.21.14</t>
+  </si>
+  <si>
+    <t>54.83.79.158</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,8 +898,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -834,8 +932,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -893,12 +997,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,12 +1034,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1240,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1234271A-1294-476D-832B-3DB4C01D30BC}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1254,10 +1371,11 @@
     <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>95</v>
       </c>
@@ -1272,7 +1390,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1285,7 +1403,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -1310,17 +1428,20 @@
       <c r="H3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1345,17 +1466,20 @@
       <c r="H4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1380,17 +1504,20 @@
       <c r="H5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1415,17 +1542,20 @@
       <c r="H6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="12" t="s">
         <v>239</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1450,17 +1580,20 @@
       <c r="H7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1485,17 +1618,20 @@
       <c r="H8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1520,17 +1656,20 @@
       <c r="H9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1555,17 +1694,20 @@
       <c r="H10" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1590,17 +1732,20 @@
       <c r="H11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1625,17 +1770,20 @@
       <c r="H12" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="12" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1660,17 +1808,20 @@
       <c r="H13" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1695,17 +1846,20 @@
       <c r="H14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1730,17 +1884,20 @@
       <c r="H15" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1765,17 +1922,20 @@
       <c r="H16" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="12" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1800,17 +1960,20 @@
       <c r="H17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="12" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1835,17 +1998,20 @@
       <c r="H18" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1870,17 +2036,20 @@
       <c r="H19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="12" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1905,17 +2074,20 @@
       <c r="H20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="12" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1940,17 +2112,20 @@
       <c r="H21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="12" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1975,17 +2150,20 @@
       <c r="H22" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="12" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2008,17 +2186,20 @@
       <c r="H23" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="12" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2043,17 +2224,20 @@
       <c r="H24" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="12" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2078,17 +2262,20 @@
       <c r="H25" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="12" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2113,17 +2300,20 @@
       <c r="H26" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="12" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2148,17 +2338,20 @@
       <c r="H27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="12" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L27" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2183,17 +2376,20 @@
       <c r="H28" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="12" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2218,17 +2414,20 @@
       <c r="H29" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="12" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2253,17 +2452,20 @@
       <c r="H30" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="12" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2288,17 +2490,20 @@
       <c r="H31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="12" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L31" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2323,17 +2528,20 @@
       <c r="H32" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="12" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L32" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2342,9 +2550,13 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2402,5 +2614,6 @@
     <hyperlink ref="D24" r:id="rId48" xr:uid="{9B3AF4E3-6B3F-413E-826C-C6521982282E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
--- a/AMDOCS_SPLK_LAB_ACCESS.xlsx
+++ b/AMDOCS_SPLK_LAB_ACCESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vivek\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0517CEA-7EA7-4700-8261-3FD7F0FA96FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68CC585-2FCB-4C4E-87D9-79851DE5D9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0225589B-A936-48E8-AC78-C6C2DAFE10EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="304">
   <si>
     <t>User Name</t>
   </si>
@@ -850,6 +850,93 @@
   </si>
   <si>
     <t>54.83.79.158</t>
+  </si>
+  <si>
+    <t>URL 8</t>
+  </si>
+  <si>
+    <t>3.84.239.24</t>
+  </si>
+  <si>
+    <t>54.144.146.11</t>
+  </si>
+  <si>
+    <t>100.25.119.190</t>
+  </si>
+  <si>
+    <t>52.86.164.135</t>
+  </si>
+  <si>
+    <t>54.234.82.45</t>
+  </si>
+  <si>
+    <t>54.210.174.198</t>
+  </si>
+  <si>
+    <t>18.209.152.250</t>
+  </si>
+  <si>
+    <t>100.25.154.42</t>
+  </si>
+  <si>
+    <t>54.237.40.201</t>
+  </si>
+  <si>
+    <t>3.84.222.148</t>
+  </si>
+  <si>
+    <t>52.86.55.48</t>
+  </si>
+  <si>
+    <t>54.172.40.149</t>
+  </si>
+  <si>
+    <t>100.25.24.191</t>
+  </si>
+  <si>
+    <t>54.144.22.103</t>
+  </si>
+  <si>
+    <t>3.85.148.131</t>
+  </si>
+  <si>
+    <t>52.90.12.254</t>
+  </si>
+  <si>
+    <t>100.25.156.229</t>
+  </si>
+  <si>
+    <t>34.229.49.15</t>
+  </si>
+  <si>
+    <t>3.90.70.254</t>
+  </si>
+  <si>
+    <t>52.87.215.201</t>
+  </si>
+  <si>
+    <t>54.152.144.176</t>
+  </si>
+  <si>
+    <t>107.23.103.165</t>
+  </si>
+  <si>
+    <t>54.84.135.154</t>
+  </si>
+  <si>
+    <t>35.174.209.219</t>
+  </si>
+  <si>
+    <t>54.161.238.193</t>
+  </si>
+  <si>
+    <t>54.175.225.87</t>
+  </si>
+  <si>
+    <t>100.25.133.149</t>
+  </si>
+  <si>
+    <t>100.26.220.29</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1031,17 +1118,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1357,53 +1445,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1234271A-1294-476D-832B-3DB4C01D30BC}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="36.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.90625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="13.54296875" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="13.54296875" style="12" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -1428,20 +1521,23 @@
       <c r="H3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1466,20 +1562,23 @@
       <c r="H4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="13" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1504,20 +1603,23 @@
       <c r="H5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="13" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M5" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1542,20 +1644,23 @@
       <c r="H6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="13" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1580,20 +1685,23 @@
       <c r="H7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="13" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M7" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1618,20 +1726,23 @@
       <c r="H8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="13" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M8" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1656,20 +1767,23 @@
       <c r="H9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="13" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M9" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1694,20 +1808,23 @@
       <c r="H10" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="13" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M10" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1732,20 +1849,23 @@
       <c r="H11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="13" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M11" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1770,20 +1890,23 @@
       <c r="H12" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="13" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M12" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1808,20 +1931,23 @@
       <c r="H13" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="13" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M13" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1846,20 +1972,23 @@
       <c r="H14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="13" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M14" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1884,20 +2013,23 @@
       <c r="H15" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="13" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M15" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1922,20 +2054,23 @@
       <c r="H16" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="13" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M16" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1960,20 +2095,23 @@
       <c r="H17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="13" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M17" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1998,20 +2136,23 @@
       <c r="H18" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="13" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M18" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2036,20 +2177,23 @@
       <c r="H19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="13" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M19" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2074,20 +2218,23 @@
       <c r="H20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="13" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M20" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2112,20 +2259,23 @@
       <c r="H21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="13" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M21" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2150,20 +2300,23 @@
       <c r="H22" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="13" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M22" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2186,20 +2339,23 @@
       <c r="H23" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="13" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M23" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2224,20 +2380,23 @@
       <c r="H24" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="13" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M24" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2262,20 +2421,23 @@
       <c r="H25" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="L25" s="15" t="s">
+      <c r="L25" s="13" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M25" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2300,20 +2462,23 @@
       <c r="H26" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="L26" s="15" t="s">
+      <c r="L26" s="13" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M26" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2338,20 +2503,23 @@
       <c r="H27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="L27" s="15" t="s">
+      <c r="L27" s="13" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M27" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2376,20 +2544,23 @@
       <c r="H28" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="13" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M28" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2414,20 +2585,23 @@
       <c r="H29" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="L29" s="13" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M29" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2452,20 +2626,23 @@
       <c r="H30" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="L30" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M30" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2490,20 +2667,23 @@
       <c r="H31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="L31" s="15" t="s">
+      <c r="L31" s="13" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M31" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2528,20 +2708,23 @@
       <c r="H32" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K32" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="L32" s="15" t="s">
+      <c r="L32" s="13" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M32" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2550,17 +2733,18 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="15"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L34" s="15"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L34" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
